--- a/VulnerabilityMapping/Mythril.xlsx
+++ b/VulnerabilityMapping/Mythril.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96371EC1-3A31-4251-856C-97184EC7A3FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC425758-3D48-46D4-8E6A-994DA6EA269F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,11 +11,20 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Original Vulnerability</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +118,18 @@
   </si>
   <si>
     <t>Multiple Calls in a Single Transaction</t>
+  </si>
+  <si>
+    <t>jump-arbitrary-instruction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception-State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiple-calls-in-transaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -521,7 +542,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -583,7 +604,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -639,7 +660,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
@@ -723,7 +744,7 @@
         <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>13</v>
